--- a/13. Dynamic_Dashboard/Advance_Pivot_with_3d_and_Dyanamic_Dashboarding.xlsx
+++ b/13. Dynamic_Dashboard/Advance_Pivot_with_3d_and_Dyanamic_Dashboarding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advance_Excel_BI\13. Dynamic_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64217DB7-8370-482F-A337-27A4E336740A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDBEEE7-5F3A-45E7-947B-DDA0629B8F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{2EEDDA8A-1E0B-4C35-B98E-5809934422EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2EEDDA8A-1E0B-4C35-B98E-5809934422EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot_1" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="16" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -12569,7 +12569,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9911DA61-3A53-4D17-9420-F68C4ED68E59}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9911DA61-3A53-4D17-9420-F68C4ED68E59}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -12805,7 +12805,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E073E34A-43F4-42E5-8244-1F456AF4C22B}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E073E34A-43F4-42E5-8244-1F456AF4C22B}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -13075,7 +13075,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D78E9B3-EF8A-4596-876F-BE3FD6627AE3}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D78E9B3-EF8A-4596-876F-BE3FD6627AE3}" name="PivotTable3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -13332,7 +13332,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{38820309-D752-4526-9EA5-75FC3A1582F1}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{38820309-D752-4526-9EA5-75FC3A1582F1}" name="PivotTable4" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -14151,8 +14151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7366B08A-AACC-4639-A674-811086954E54}">
   <dimension ref="A3:B8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14220,7 +14220,7 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14336,7 +14336,7 @@
   <dimension ref="A3:B19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14560,7 +14560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFA0A26-36CB-45A3-A16B-CF608F0E7586}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -14652,8 +14652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EB702C-2CA7-4800-A1A0-B4816E9E0C16}">
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
